--- a/cod_urls.xlsx
+++ b/cod_urls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARCOS MADEIRA\Documents\Projetos\PriceScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1354F1-00DB-45C9-A9FA-0A7EE51B2324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA1B45A-A431-418D-B35F-EECE4D2687DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -460,7 +460,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,11 +785,6 @@
       <c r="A80"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B15" xr:uid="{EFA74EFA-C014-4DBD-89E0-BC9A17383E86}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
